--- a/pred_ohlcv/54_23/2019-10-15 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-15 FAB ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1450,7 +1450,7 @@
         <v>6.7</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>6.7</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -1496,7 +1496,7 @@
         <v>6.7</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -1519,7 +1519,7 @@
         <v>6.6</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -1542,7 +1542,7 @@
         <v>6.55</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -1565,7 +1565,7 @@
         <v>6.69</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -1611,7 +1611,7 @@
         <v>6.68</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>6.55</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -5567,7 +5567,7 @@
         <v>6.06</v>
       </c>
       <c r="F226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -5597,6 +5597,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>